--- a/Supplementary_materials/Supplementary Table 3.xlsx
+++ b/Supplementary_materials/Supplementary Table 3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonguo/myDocuments/git_local_repo/COVIDnetwork/Supplementary_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C5E6EE-0806-1C4C-A93D-A896E280F5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6A9B5B-6D42-FD4F-97A7-DC4EED18845D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="2240" windowWidth="27640" windowHeight="16940" xr2:uid="{EE0873B7-A805-E04D-8447-9AF404475538}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="966">
   <si>
     <t>GSK3B</t>
   </si>
@@ -2926,6 +2926,15 @@
   </si>
   <si>
     <t>Nucleoside diphosphate kinase 3 (NDK 3) (NDP kinase 3) (EC 2.7.4.6) (DR-nm23) (Nucleoside diphosphate kinase C) (NDPKC) (nm23-H3)</t>
+  </si>
+  <si>
+    <t>Q5JZY3</t>
+  </si>
+  <si>
+    <t>EPHA10</t>
+  </si>
+  <si>
+    <t>Receptor for members of the ephrin-A family. Binds to EFNA3, EFNA4 and EFNA5.</t>
   </si>
 </sst>
 </file>
@@ -3291,11 +3300,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A2DDEA-2A36-1445-925F-5650F0D7A5C1}">
-  <dimension ref="A1:C321"/>
+  <dimension ref="A1:C322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C322" sqref="C322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6834,6 +6843,17 @@
         <v>962</v>
       </c>
     </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>963</v>
+      </c>
+      <c r="B322" t="s">
+        <v>964</v>
+      </c>
+      <c r="C322" t="s">
+        <v>965</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C303" xr:uid="{D7578316-93ED-264C-8829-723AEC796AD6}"/>
   <conditionalFormatting sqref="B2:B1048576">
